--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,6 +40,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
     <t>creepy</t>
   </si>
   <si>
@@ -49,87 +52,99 @@
     <t>worst</t>
   </si>
   <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>evil</t>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>stupid</t>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>dumb</t>
   </si>
   <si>
     <t>fucking</t>
   </si>
   <si>
-    <t>dumb</t>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>guilty</t>
   </si>
   <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>sorry</t>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>fucked</t>
   </si>
   <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>dark</t>
+    <t>serious</t>
   </si>
   <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>weird</t>
-  </si>
-  <si>
     <t>black</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -151,112 +166,112 @@
     <t>great</t>
   </si>
   <si>
-    <t>huge</t>
-  </si>
-  <si>
-    <t>perfect</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>free</t>
+  </si>
+  <si>
+    <t>powerful</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
     <t>okay</t>
   </si>
   <si>
     <t>first</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
     <t>much</t>
   </si>
   <si>
-    <t>digital</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>netflix</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
     <t>documentary</t>
   </si>
   <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
     <t>dilemma</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>…</t>
   </si>
   <si>
     <t>’</t>
@@ -628,10 +643,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -692,10 +707,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -710,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -742,10 +757,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -760,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -789,13 +804,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -807,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -839,13 +854,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9242424242424242</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C6">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -857,19 +872,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -881,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -889,13 +904,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9230769230769231</v>
+        <v>0.9326923076923077</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -907,19 +922,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K7">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="L7">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M7">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -931,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -939,38 +954,38 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8888888888888888</v>
+        <v>0.9</v>
       </c>
       <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8">
+        <v>0.8</v>
+      </c>
+      <c r="L8">
         <v>8</v>
       </c>
-      <c r="D8">
+      <c r="M8">
         <v>8</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L8">
-        <v>6</v>
-      </c>
-      <c r="M8">
-        <v>6</v>
-      </c>
       <c r="N8">
         <v>1</v>
       </c>
@@ -981,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -989,13 +1004,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8846153846153846</v>
+        <v>0.8939393939393939</v>
       </c>
       <c r="C9">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="D9">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1007,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K9">
-        <v>0.8571428571428571</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L9">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="M9">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1031,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1039,13 +1054,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8666666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1060,16 +1075,16 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K10">
-        <v>0.7192982456140351</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="L10">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M10">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1081,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1089,13 +1104,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8333333333333334</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1110,16 +1125,16 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K11">
-        <v>0.7</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1131,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1139,13 +1154,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8125</v>
+        <v>0.8</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1160,16 +1175,16 @@
         <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K12">
-        <v>0.6933333333333334</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L12">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M12">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1181,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1189,13 +1204,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1210,16 +1225,16 @@
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K13">
-        <v>0.6896551724137931</v>
+        <v>0.68</v>
       </c>
       <c r="L13">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="M13">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1231,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1239,13 +1254,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7647058823529411</v>
+        <v>0.75</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1257,19 +1272,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K14">
-        <v>0.6153846153846154</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="L14">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="M14">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1281,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1292,10 +1307,10 @@
         <v>0.75</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1307,19 +1322,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K15">
-        <v>0.5833333333333334</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1339,13 +1354,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="C16">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1357,31 +1372,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K16">
-        <v>0.5789473684210527</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L16">
+        <v>16</v>
+      </c>
+      <c r="M16">
+        <v>16</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>11</v>
-      </c>
-      <c r="M16">
-        <v>11</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1389,13 +1404,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6363636363636364</v>
+        <v>0.6875</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1407,19 +1422,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K17">
-        <v>0.5555555555555556</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="L17">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="M17">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1431,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1439,13 +1454,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.625</v>
+        <v>0.675</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1457,19 +1472,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K18">
-        <v>0.5333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="L18">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1481,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1489,13 +1504,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6086956521739131</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1507,19 +1522,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K19">
-        <v>0.5185185185185185</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="L19">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M19">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1531,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1539,13 +1554,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5942028985507246</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C20">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1557,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K20">
-        <v>0.4615384615384616</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="L20">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="M20">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1581,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1589,13 +1604,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5882352941176471</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1607,13 +1622,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K21">
-        <v>0.4285714285714285</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L21">
         <v>6</v>
@@ -1631,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1639,38 +1654,38 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5789473684210527</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>7</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22">
+        <v>0.3055555555555556</v>
+      </c>
+      <c r="L22">
         <v>11</v>
       </c>
-      <c r="D22">
+      <c r="M22">
         <v>11</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>8</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K22">
-        <v>0.4242424242424243</v>
-      </c>
-      <c r="L22">
-        <v>14</v>
-      </c>
-      <c r="M22">
-        <v>14</v>
-      </c>
       <c r="N22">
         <v>1</v>
       </c>
@@ -1681,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1689,13 +1704,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5714285714285714</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1707,19 +1722,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K23">
-        <v>0.3888888888888889</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="L23">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M23">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1731,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1739,13 +1754,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.55</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D24">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1757,19 +1772,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K24">
-        <v>0.375</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="L24">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M24">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1781,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1789,13 +1804,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5416666666666666</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C25">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1810,16 +1825,16 @@
         <v>11</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K25">
-        <v>0.3050847457627119</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="L25">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="M25">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1831,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1839,13 +1854,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5319148936170213</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D26">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1857,19 +1872,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K26">
-        <v>0.2404371584699453</v>
+        <v>0.2377049180327869</v>
       </c>
       <c r="L26">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M26">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1881,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>834</v>
+        <v>837</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1889,7 +1904,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C27">
         <v>13</v>
@@ -1907,19 +1922,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K27">
-        <v>0.2153846153846154</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L27">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M27">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1931,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1939,7 +1954,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4642857142857143</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C28">
         <v>13</v>
@@ -1957,19 +1972,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K28">
-        <v>0.2142857142857143</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="L28">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M28">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1981,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1989,13 +2004,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4642857142857143</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C29">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D29">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2007,19 +2022,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K29">
-        <v>0.1951219512195122</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="L29">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M29">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2031,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2039,13 +2054,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2057,19 +2072,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K30">
-        <v>0.1851851851851852</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L30">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M30">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2081,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2089,38 +2104,38 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3928571428571428</v>
+        <v>0.5</v>
       </c>
       <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>10</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K31">
+        <v>0.1506849315068493</v>
+      </c>
+      <c r="L31">
         <v>11</v>
       </c>
-      <c r="D31">
+      <c r="M31">
         <v>11</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>17</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K31">
-        <v>0.1475409836065574</v>
-      </c>
-      <c r="L31">
-        <v>9</v>
-      </c>
-      <c r="M31">
-        <v>9</v>
-      </c>
       <c r="N31">
         <v>1</v>
       </c>
@@ -2131,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2139,13 +2154,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3846153846153846</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C32">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D32">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2157,19 +2172,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K32">
-        <v>0.1304347826086956</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="L32">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M32">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2181,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2189,13 +2204,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1923076923076923</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C33">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D33">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2207,19 +2222,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K33">
-        <v>0.1296296296296296</v>
+        <v>0.1294117647058824</v>
       </c>
       <c r="L33">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M33">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2231,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2239,193 +2254,313 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.04377104377104377</v>
+        <v>0.4375</v>
       </c>
       <c r="C34">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D34">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E34">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>284</v>
+        <v>9</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K34">
-        <v>0.1294117647058824</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="L34">
+        <v>8</v>
+      </c>
+      <c r="M34">
+        <v>8</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="C35">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>9</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>12</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K35">
+        <v>0.05740740740740741</v>
+      </c>
+      <c r="L35">
+        <v>31</v>
+      </c>
+      <c r="M35">
+        <v>31</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.3928571428571428</v>
+      </c>
+      <c r="C36">
         <v>11</v>
       </c>
-      <c r="M34">
+      <c r="D36">
         <v>11</v>
       </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="J35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K35">
-        <v>0.1263157894736842</v>
-      </c>
-      <c r="L35">
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>17</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K36">
+        <v>0.05504587155963303</v>
+      </c>
+      <c r="L36">
+        <v>6</v>
+      </c>
+      <c r="M36">
+        <v>6</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>22</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K37">
+        <v>0.04969879518072289</v>
+      </c>
+      <c r="L37">
+        <v>33</v>
+      </c>
+      <c r="M37">
+        <v>33</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0.1794871794871795</v>
+      </c>
+      <c r="C38">
+        <v>14</v>
+      </c>
+      <c r="D38">
+        <v>14</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>64</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K38">
+        <v>0.04379562043795621</v>
+      </c>
+      <c r="L38">
+        <v>6</v>
+      </c>
+      <c r="M38">
+        <v>6</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0.04040404040404041</v>
+      </c>
+      <c r="C39">
         <v>12</v>
       </c>
-      <c r="M35">
-        <v>12</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="J36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K36">
-        <v>0.0958904109589041</v>
-      </c>
-      <c r="L36">
-        <v>7</v>
-      </c>
-      <c r="M36">
-        <v>7</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="J37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K37">
-        <v>0.04814814814814815</v>
-      </c>
-      <c r="L37">
-        <v>26</v>
-      </c>
-      <c r="M37">
-        <v>26</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K38">
+      <c r="D39">
+        <v>14</v>
+      </c>
+      <c r="E39">
+        <v>0.14</v>
+      </c>
+      <c r="F39">
+        <v>0.86</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>285</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K39">
         <v>0.03886925795053003</v>
       </c>
-      <c r="L38">
+      <c r="L39">
         <v>11</v>
       </c>
-      <c r="M38">
+      <c r="M39">
         <v>11</v>
       </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
         <v>272</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K39">
-        <v>0.02857142857142857</v>
-      </c>
-      <c r="L39">
-        <v>9</v>
-      </c>
-      <c r="M39">
-        <v>9</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>306</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K40">
-        <v>0.02710843373493976</v>
+        <v>0.03084415584415584</v>
       </c>
       <c r="L40">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M40">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2437,21 +2572,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>646</v>
+        <v>597</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K41">
-        <v>0.02435064935064935</v>
+        <v>0.02932551319648094</v>
       </c>
       <c r="L41">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M41">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2463,21 +2598,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>601</v>
+        <v>331</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K42">
-        <v>0.02052785923753666</v>
+        <v>0.0195852534562212</v>
       </c>
       <c r="L42">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="M42">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2489,21 +2624,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>334</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K43">
-        <v>0.01900921658986175</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="L43">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="M43">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2515,33 +2650,33 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>1703</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K44">
-        <v>0.01666666666666667</v>
+        <v>0.01664532650448143</v>
       </c>
       <c r="L44">
         <v>13</v>
       </c>
       <c r="M44">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N44">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
   </sheetData>
